--- a/Analyzing Customer Feedback/data/out/reviews_top_unigrams.xlsx
+++ b/Analyzing Customer Feedback/data/out/reviews_top_unigrams.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>ngram_idx</t>
   </si>
@@ -37,37 +37,292 @@
     <t>fit</t>
   </si>
   <si>
+    <t>top</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>wear</t>
   </si>
   <si>
-    <t>top</t>
+    <t>would</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>fabric</t>
   </si>
   <si>
+    <t>color</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>ordered</t>
+    <t>flattering</t>
+  </si>
+  <si>
+    <t>soft</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>fits</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>sweater</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>petite</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>jeans</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>waist</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>xs</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>retailer</t>
+  </si>
+  <si>
+    <t>usually</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>skirt</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>pants</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>sleeves</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>runs</t>
+  </si>
+  <si>
+    <t>wearing</t>
+  </si>
+  <si>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>tight</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>looked</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>body</t>
   </si>
 </sst>
 </file>
@@ -425,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,167 +699,1102 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>650</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>226</v>
+        <v>9301</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1962</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>193</v>
+        <v>7813</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1271</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>175</v>
+        <v>7716</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>813</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>152</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1227</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>149</v>
+        <v>6511</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2437</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>140</v>
+        <v>6261</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2270</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8">
-        <v>140</v>
+        <v>5703</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>950</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9">
-        <v>127</v>
+        <v>5451</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>2511</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10">
-        <v>127</v>
+        <v>5289</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>762</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
-        <v>111</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>2001</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12">
-        <v>99</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1245</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13">
-        <v>98</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1468</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14">
-        <v>94</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>398</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15">
-        <v>87</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1484</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>88</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>66</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>90</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>79</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>74</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>92</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>56</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>47</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>78</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>54</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>89</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
         <v>82</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>80</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>70</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>68</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>94</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>63</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>34</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>23</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>58</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>96</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>20</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>81</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>50</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>30</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>28</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>85</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>43</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>17</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>37</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>69</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>46</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>59</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>62</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>24</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101">
+        <v>1059</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzing Customer Feedback/data/out/reviews_top_unigrams.xlsx
+++ b/Analyzing Customer Feedback/data/out/reviews_top_unigrams.xlsx
@@ -28,39 +28,39 @@
     <t>dress</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>love</t>
+    <t>top</t>
   </si>
   <si>
     <t>fit</t>
   </si>
   <si>
-    <t>top</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>wear</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>fabric</t>
   </si>
   <si>
+    <t>small</t>
+  </si>
+  <si>
     <t>color</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>look</t>
   </si>
   <si>
@@ -91,30 +91,30 @@
     <t>back</t>
   </si>
   <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>cute</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>looks</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>looks</t>
-  </si>
-  <si>
     <t>fits</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
     <t>large</t>
   </si>
   <si>
@@ -130,60 +130,60 @@
     <t>also</t>
   </si>
   <si>
+    <t>shirt</t>
+  </si>
+  <si>
     <t>sweater</t>
   </si>
   <si>
-    <t>shirt</t>
+    <t>got</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>jeans</t>
+  </si>
+  <si>
+    <t>colors</t>
   </si>
   <si>
     <t>petite</t>
   </si>
   <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>jeans</t>
-  </si>
-  <si>
-    <t>colors</t>
-  </si>
-  <si>
     <t>waist</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>medium</t>
   </si>
   <si>
     <t>think</t>
   </si>
   <si>
-    <t>quality</t>
+    <t>pretty</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>pretty</t>
-  </si>
-  <si>
     <t>xs</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
+    <t>retailer</t>
+  </si>
+  <si>
     <t>tried</t>
   </si>
   <si>
-    <t>retailer</t>
-  </si>
-  <si>
     <t>usually</t>
   </si>
   <si>
@@ -199,42 +199,45 @@
     <t>get</t>
   </si>
   <si>
+    <t>pants</t>
+  </si>
+  <si>
     <t>way</t>
   </si>
   <si>
-    <t>pants</t>
-  </si>
-  <si>
     <t>short</t>
   </si>
   <si>
+    <t>big</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>big</t>
-  </si>
-  <si>
     <t>still</t>
   </si>
   <si>
+    <t>right</t>
+  </si>
+  <si>
     <t>black</t>
   </si>
   <si>
-    <t>right</t>
+    <t>super</t>
+  </si>
+  <si>
+    <t>runs</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
     <t>style</t>
   </si>
   <si>
@@ -244,43 +247,46 @@
     <t>see</t>
   </si>
   <si>
-    <t>runs</t>
+    <t>purchased</t>
   </si>
   <si>
     <t>wearing</t>
   </si>
   <si>
-    <t>purchased</t>
+    <t>design</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>design</t>
-  </si>
-  <si>
     <t>feel</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>tight</t>
+  </si>
+  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>enough</t>
-  </si>
-  <si>
-    <t>tight</t>
-  </si>
-  <si>
-    <t>summer</t>
+    <t>go</t>
   </si>
   <si>
     <t>model</t>
   </si>
   <si>
-    <t>go</t>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>looked</t>
   </si>
   <si>
     <t>front</t>
@@ -289,18 +295,15 @@
     <t>though</t>
   </si>
   <si>
-    <t>looked</t>
-  </si>
-  <si>
-    <t>definitely</t>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>lbs</t>
   </si>
   <si>
-    <t>sale</t>
-  </si>
-  <si>
     <t>loved</t>
   </si>
   <si>
@@ -310,19 +313,16 @@
     <t>better</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>blue</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>body</t>
+    <t>going</t>
+  </si>
+  <si>
+    <t>jacket</t>
   </si>
 </sst>
 </file>
@@ -699,57 +699,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>9301</v>
+        <v>10499</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>7813</v>
+        <v>8929</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>7716</v>
+        <v>8707</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>6560</v>
+        <v>7358</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>6511</v>
+        <v>7271</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>6261</v>
+        <v>7003</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -771,62 +771,62 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>5703</v>
+        <v>6415</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9">
-        <v>5451</v>
+        <v>6095</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10">
-        <v>5289</v>
+        <v>6084</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
-        <v>4290</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12">
-        <v>4071</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13">
-        <v>4044</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -837,7 +837,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>3599</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -848,7 +848,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>3510</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -859,7 +859,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>3430</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -870,7 +870,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>3342</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -881,7 +881,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>3321</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -892,18 +892,18 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>3238</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20">
-        <v>3081</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -914,7 +914,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>2941</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -925,7 +925,7 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>2884</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -936,62 +936,62 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>2848</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24">
-        <v>2693</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25">
-        <v>2680</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26">
-        <v>2661</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27">
-        <v>2598</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28">
-        <v>2582</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1002,29 +1002,29 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>2554</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30">
-        <v>2536</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31">
-        <v>2484</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1035,7 +1035,7 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>2459</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1046,7 +1046,7 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>2433</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1057,7 +1057,7 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>2408</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1068,7 +1068,7 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>2354</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1079,95 +1079,95 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>2325</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37">
-        <v>2220</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38">
-        <v>2216</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39">
-        <v>2156</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40">
-        <v>2148</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41">
-        <v>2142</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="C42">
-        <v>2113</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
       <c r="C43">
-        <v>2110</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44">
-        <v>2097</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1178,62 +1178,62 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>2089</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
       <c r="C46">
-        <v>1993</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47">
-        <v>1968</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
       <c r="C48">
-        <v>1952</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
       <c r="C49">
-        <v>1950</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
       <c r="C50">
-        <v>1946</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1244,7 +1244,7 @@
         <v>52</v>
       </c>
       <c r="C51">
-        <v>1918</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1255,29 +1255,29 @@
         <v>53</v>
       </c>
       <c r="C52">
-        <v>1902</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
       <c r="C53">
-        <v>1894</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54">
-        <v>1885</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1288,7 +1288,7 @@
         <v>56</v>
       </c>
       <c r="C55">
-        <v>1805</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1299,7 +1299,7 @@
         <v>57</v>
       </c>
       <c r="C56">
-        <v>1784</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1310,51 +1310,51 @@
         <v>58</v>
       </c>
       <c r="C57">
-        <v>1766</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
       <c r="C58">
-        <v>1733</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
       <c r="C59">
-        <v>1699</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
       <c r="C60">
-        <v>1683</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
       <c r="C61">
-        <v>1669</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1365,40 +1365,40 @@
         <v>63</v>
       </c>
       <c r="C62">
-        <v>1653</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
       <c r="C63">
-        <v>1647</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
       <c r="C64">
-        <v>1605</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
       </c>
       <c r="C65">
-        <v>1602</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1409,194 +1409,194 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>1559</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
       </c>
       <c r="C67">
-        <v>1555</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
       <c r="C68">
-        <v>1540</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
       </c>
       <c r="C69">
-        <v>1502</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
       <c r="C70">
-        <v>1494</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
       <c r="C71">
-        <v>1466</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
       <c r="C72">
-        <v>1442</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
       </c>
       <c r="C73">
-        <v>1441</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
       </c>
       <c r="C74">
-        <v>1437</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
       </c>
       <c r="C75">
-        <v>1430</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
       </c>
       <c r="C76">
-        <v>1379</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
       </c>
       <c r="C77">
-        <v>1368</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
       </c>
       <c r="C78">
-        <v>1331</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
       <c r="C79">
-        <v>1322</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
       </c>
       <c r="C80">
-        <v>1306</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
       </c>
       <c r="C81">
-        <v>1293</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
       </c>
       <c r="C82">
-        <v>1282</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
       </c>
       <c r="C83">
-        <v>1281</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1607,150 +1607,150 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>1278</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
       </c>
       <c r="C85">
-        <v>1272</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
       </c>
       <c r="C86">
-        <v>1207</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
       </c>
       <c r="C87">
-        <v>1204</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
       </c>
       <c r="C88">
-        <v>1191</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
       </c>
       <c r="C89">
-        <v>1175</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
       </c>
       <c r="C90">
-        <v>1172</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
       </c>
       <c r="C91">
-        <v>1170</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
       </c>
       <c r="C92">
-        <v>1165</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
       </c>
       <c r="C93">
-        <v>1163</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
       </c>
       <c r="C94">
-        <v>1125</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
       </c>
       <c r="C95">
-        <v>1124</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
       </c>
       <c r="C96">
-        <v>1118</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
       </c>
       <c r="C97">
-        <v>1115</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1761,40 +1761,40 @@
         <v>99</v>
       </c>
       <c r="C98">
-        <v>1101</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
       </c>
       <c r="C99">
-        <v>1079</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
       </c>
       <c r="C100">
-        <v>1067</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>
       </c>
       <c r="C101">
-        <v>1059</v>
+        <v>1179</v>
       </c>
     </row>
   </sheetData>
